--- a/FitnessData/dynamic15/pso/scheduling1_11.xlsx
+++ b/FitnessData/dynamic15/pso/scheduling1_11.xlsx
@@ -1343,898 +1343,898 @@
         <v>324.45</v>
       </c>
       <c r="C2" t="n">
-        <v>322.52</v>
+        <v>320.61</v>
       </c>
       <c r="D2" t="n">
-        <v>322.52</v>
+        <v>297.23</v>
       </c>
       <c r="E2" t="n">
-        <v>322.52</v>
+        <v>297.23</v>
       </c>
       <c r="F2" t="n">
-        <v>322.52</v>
+        <v>297.23</v>
       </c>
       <c r="G2" t="n">
-        <v>322.52</v>
+        <v>297.23</v>
       </c>
       <c r="H2" t="n">
-        <v>322.52</v>
+        <v>297.23</v>
       </c>
       <c r="I2" t="n">
-        <v>322.52</v>
+        <v>317.05</v>
       </c>
       <c r="J2" t="n">
-        <v>315.06</v>
+        <v>301.19</v>
       </c>
       <c r="K2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="L2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="M2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="N2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="O2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="P2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="Q2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="R2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="S2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="T2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="U2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="V2" t="n">
-        <v>302.81</v>
+        <v>301.19</v>
       </c>
       <c r="W2" t="n">
-        <v>302.81</v>
+        <v>301.19</v>
       </c>
       <c r="X2" t="n">
-        <v>302.81</v>
+        <v>301.19</v>
       </c>
       <c r="Y2" t="n">
-        <v>302.81</v>
+        <v>301.19</v>
       </c>
       <c r="Z2" t="n">
-        <v>302.81</v>
+        <v>301.19</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.81</v>
+        <v>293.84</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.81</v>
+        <v>301.19</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.81</v>
+        <v>301.19</v>
       </c>
       <c r="AD2" t="n">
-        <v>317.04</v>
+        <v>301.19</v>
       </c>
       <c r="AE2" t="n">
-        <v>302.81</v>
+        <v>293.84</v>
       </c>
       <c r="AF2" t="n">
-        <v>319.29</v>
+        <v>293.84</v>
       </c>
       <c r="AG2" t="n">
-        <v>319.29</v>
+        <v>293.84</v>
       </c>
       <c r="AH2" t="n">
-        <v>319.29</v>
+        <v>293.84</v>
       </c>
       <c r="AI2" t="n">
-        <v>319.29</v>
+        <v>293.84</v>
       </c>
       <c r="AJ2" t="n">
-        <v>302.81</v>
+        <v>293.84</v>
       </c>
       <c r="AK2" t="n">
-        <v>319.29</v>
+        <v>301.19</v>
       </c>
       <c r="AL2" t="n">
-        <v>302.81</v>
+        <v>313.95</v>
       </c>
       <c r="AM2" t="n">
-        <v>302.81</v>
+        <v>293.84</v>
       </c>
       <c r="AN2" t="n">
-        <v>302.81</v>
+        <v>293.84</v>
       </c>
       <c r="AO2" t="n">
-        <v>302.81</v>
+        <v>293.84</v>
       </c>
       <c r="AP2" t="n">
-        <v>302.81</v>
+        <v>293.84</v>
       </c>
       <c r="AQ2" t="n">
-        <v>319.29</v>
+        <v>293.84</v>
       </c>
       <c r="AR2" t="n">
-        <v>311.26</v>
+        <v>301.19</v>
       </c>
       <c r="AS2" t="n">
-        <v>311.26</v>
+        <v>293.84</v>
       </c>
       <c r="AT2" t="n">
-        <v>311.26</v>
+        <v>301.19</v>
       </c>
       <c r="AU2" t="n">
-        <v>311.26</v>
+        <v>293.84</v>
       </c>
       <c r="AV2" t="n">
-        <v>311.26</v>
+        <v>301.19</v>
       </c>
       <c r="AW2" t="n">
-        <v>311.26</v>
+        <v>301.19</v>
       </c>
       <c r="AX2" t="n">
-        <v>300.65</v>
+        <v>293.84</v>
       </c>
       <c r="AY2" t="n">
-        <v>300.65</v>
+        <v>301.19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>300.65</v>
+        <v>293.84</v>
       </c>
       <c r="BA2" t="n">
-        <v>300.65</v>
+        <v>301.19</v>
       </c>
       <c r="BB2" t="n">
-        <v>300.65</v>
+        <v>293.84</v>
       </c>
       <c r="BC2" t="n">
-        <v>300.65</v>
+        <v>293.84</v>
       </c>
       <c r="BD2" t="n">
-        <v>300.65</v>
+        <v>301.19</v>
       </c>
       <c r="BE2" t="n">
-        <v>300.65</v>
+        <v>293.84</v>
       </c>
       <c r="BF2" t="n">
-        <v>300.65</v>
+        <v>301.19</v>
       </c>
       <c r="BG2" t="n">
-        <v>291.38</v>
+        <v>301.19</v>
       </c>
       <c r="BH2" t="n">
-        <v>291.38</v>
+        <v>301.19</v>
       </c>
       <c r="BI2" t="n">
-        <v>291.38</v>
+        <v>301.19</v>
       </c>
       <c r="BJ2" t="n">
-        <v>291.38</v>
+        <v>293.84</v>
       </c>
       <c r="BK2" t="n">
-        <v>291.38</v>
+        <v>301.19</v>
       </c>
       <c r="BL2" t="n">
-        <v>291.38</v>
+        <v>293.84</v>
       </c>
       <c r="BM2" t="n">
-        <v>291.38</v>
+        <v>293.84</v>
       </c>
       <c r="BN2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="BO2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="BP2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="BQ2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="BR2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="BS2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="BT2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="BU2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="BV2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="BW2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="BX2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="BY2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="BZ2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CA2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="CB2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CC2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="CD2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CE2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CF2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CG2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="CH2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="CI2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="CJ2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CK2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CL2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CM2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CN2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CO2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CP2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CQ2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="CR2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="CS2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CT2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="CU2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CV2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CW2" t="n">
-        <v>291.91</v>
+        <v>301.19</v>
       </c>
       <c r="CX2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="CY2" t="n">
-        <v>291.91</v>
+        <v>302.53</v>
       </c>
       <c r="CZ2" t="n">
-        <v>291.91</v>
+        <v>293.84</v>
       </c>
       <c r="DA2" t="n">
-        <v>291.91</v>
+        <v>302.53</v>
       </c>
       <c r="DB2" t="n">
-        <v>279.54</v>
+        <v>293.84</v>
       </c>
       <c r="DC2" t="n">
-        <v>279.54</v>
+        <v>293.84</v>
       </c>
       <c r="DD2" t="n">
-        <v>279.54</v>
+        <v>293.84</v>
       </c>
       <c r="DE2" t="n">
-        <v>279.54</v>
+        <v>302.53</v>
       </c>
       <c r="DF2" t="n">
-        <v>279.54</v>
+        <v>302.53</v>
       </c>
       <c r="DG2" t="n">
-        <v>279.54</v>
+        <v>293.84</v>
       </c>
       <c r="DH2" t="n">
-        <v>279.54</v>
+        <v>302.53</v>
       </c>
       <c r="DI2" t="n">
-        <v>279.54</v>
+        <v>302.53</v>
       </c>
       <c r="DJ2" t="n">
-        <v>279.54</v>
+        <v>302.53</v>
       </c>
       <c r="DK2" t="n">
-        <v>279.54</v>
+        <v>302.53</v>
       </c>
       <c r="DL2" t="n">
-        <v>279.54</v>
+        <v>295.72</v>
       </c>
       <c r="DM2" t="n">
-        <v>279.54</v>
+        <v>295.72</v>
       </c>
       <c r="DN2" t="n">
-        <v>279.54</v>
+        <v>295.72</v>
       </c>
       <c r="DO2" t="n">
-        <v>279.54</v>
+        <v>295.72</v>
       </c>
       <c r="DP2" t="n">
-        <v>279.54</v>
+        <v>295.72</v>
       </c>
       <c r="DQ2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="DR2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="DS2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="DT2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="DU2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="DV2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="DW2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="DX2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="DY2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="DZ2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="EA2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="EB2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="EC2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="ED2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="EE2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="EF2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="EG2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="EH2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="EI2" t="n">
-        <v>279.54</v>
+        <v>290.24</v>
       </c>
       <c r="EJ2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EK2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EL2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EM2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EN2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EO2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EP2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EQ2" t="n">
-        <v>279.54</v>
+        <v>302.78</v>
       </c>
       <c r="ER2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="ES2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="ET2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EU2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EV2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EW2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="EX2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="EY2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="EZ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FA2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FB2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FC2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FD2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FE2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FF2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FG2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FH2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FI2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FJ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FK2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FL2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FM2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FN2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FO2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FP2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FQ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FR2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FS2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FT2" t="n">
-        <v>279.54</v>
+        <v>280.88</v>
       </c>
       <c r="FU2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FV2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FW2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="FX2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FY2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="FZ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GA2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GB2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="GC2" t="n">
-        <v>279.54</v>
+        <v>280.88</v>
       </c>
       <c r="GD2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GE2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="GF2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="GG2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GH2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GI2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="GJ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GK2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="GL2" t="n">
-        <v>279.54</v>
+        <v>280.88</v>
       </c>
       <c r="GM2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GN2" t="n">
-        <v>279.54</v>
+        <v>280.88</v>
       </c>
       <c r="GO2" t="n">
-        <v>291.91</v>
+        <v>297.57</v>
       </c>
       <c r="GP2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GQ2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="GR2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GS2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GT2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GU2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GV2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GW2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GX2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="GY2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="GZ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HA2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HB2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HC2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HD2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HE2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HF2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HG2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HH2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HI2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HJ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HK2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HL2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HM2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HN2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HO2" t="n">
-        <v>279.54</v>
+        <v>280.88</v>
       </c>
       <c r="HP2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HQ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HR2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HS2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HT2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HU2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HV2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HW2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="HX2" t="n">
-        <v>291.91</v>
+        <v>287.69</v>
       </c>
       <c r="HY2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="HZ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IA2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IB2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IC2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="ID2" t="n">
-        <v>279.54</v>
+        <v>280.88</v>
       </c>
       <c r="IE2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IF2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IG2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IH2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="II2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="IJ2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="IK2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="IL2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="IM2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="IN2" t="n">
-        <v>279.54</v>
+        <v>280.88</v>
       </c>
       <c r="IO2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IP2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="IQ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IR2" t="n">
-        <v>279.54</v>
+        <v>280.88</v>
       </c>
       <c r="IS2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IT2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="IU2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IV2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IW2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IX2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IY2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="IZ2" t="n">
-        <v>279.54</v>
+        <v>297.57</v>
       </c>
       <c r="JA2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="JB2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="JC2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="JD2" t="n">
-        <v>279.54</v>
+        <v>287.69</v>
       </c>
       <c r="JE2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JF2" t="n">
-        <v>282.85</v>
+        <v>280.88</v>
       </c>
       <c r="JG2" t="n">
-        <v>282.85</v>
+        <v>280.88</v>
       </c>
       <c r="JH2" t="n">
-        <v>282.85</v>
+        <v>297.57</v>
       </c>
       <c r="JI2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JJ2" t="n">
-        <v>282.85</v>
+        <v>280.88</v>
       </c>
       <c r="JK2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JL2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JM2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JN2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JO2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JP2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JQ2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JR2" t="n">
-        <v>282.85</v>
+        <v>287.69</v>
       </c>
       <c r="JS2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="JT2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="JU2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="JV2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="JW2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="JX2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="JY2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="JZ2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="KA2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="KB2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="KC2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="KD2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="KE2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="KF2" t="n">
-        <v>282.85</v>
+        <v>287.22</v>
       </c>
       <c r="KG2" t="n">
-        <v>282.85</v>
+        <v>278.29</v>
       </c>
       <c r="KH2" t="n">
-        <v>282.85</v>
+        <v>278.29</v>
       </c>
       <c r="KI2" t="n">
-        <v>282.85</v>
+        <v>278.29</v>
       </c>
       <c r="KJ2" t="n">
-        <v>282.85</v>
+        <v>278.29</v>
       </c>
       <c r="KK2" t="n">
-        <v>282.85</v>
+        <v>278.29</v>
       </c>
       <c r="KL2" t="n">
-        <v>282.85</v>
+        <v>278.29</v>
       </c>
       <c r="KM2" t="n">
-        <v>282.85</v>
+        <v>278.29</v>
       </c>
       <c r="KN2" t="n">
-        <v>282.85</v>
+        <v>278.29</v>
       </c>
     </row>
     <row r="3">
@@ -2245,898 +2245,898 @@
         <v>800.79</v>
       </c>
       <c r="C3" t="n">
-        <v>749.11</v>
+        <v>758.55</v>
       </c>
       <c r="D3" t="n">
-        <v>749.11</v>
+        <v>835.76</v>
       </c>
       <c r="E3" t="n">
-        <v>749.11</v>
+        <v>835.76</v>
       </c>
       <c r="F3" t="n">
-        <v>749.11</v>
+        <v>835.76</v>
       </c>
       <c r="G3" t="n">
-        <v>749.11</v>
+        <v>835.76</v>
       </c>
       <c r="H3" t="n">
-        <v>749.11</v>
+        <v>835.76</v>
       </c>
       <c r="I3" t="n">
-        <v>749.11</v>
+        <v>711.39</v>
       </c>
       <c r="J3" t="n">
-        <v>788.23</v>
+        <v>731.74</v>
       </c>
       <c r="K3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="L3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="M3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="N3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="O3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="P3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="R3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="S3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="T3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="U3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="V3" t="n">
-        <v>782.01</v>
+        <v>731.74</v>
       </c>
       <c r="W3" t="n">
-        <v>782.01</v>
+        <v>731.74</v>
       </c>
       <c r="X3" t="n">
-        <v>782.01</v>
+        <v>731.74</v>
       </c>
       <c r="Y3" t="n">
-        <v>782.01</v>
+        <v>731.74</v>
       </c>
       <c r="Z3" t="n">
-        <v>782.01</v>
+        <v>731.74</v>
       </c>
       <c r="AA3" t="n">
-        <v>782.01</v>
+        <v>767.11</v>
       </c>
       <c r="AB3" t="n">
-        <v>782.01</v>
+        <v>731.74</v>
       </c>
       <c r="AC3" t="n">
-        <v>782.01</v>
+        <v>731.74</v>
       </c>
       <c r="AD3" t="n">
-        <v>722.6900000000001</v>
+        <v>731.74</v>
       </c>
       <c r="AE3" t="n">
-        <v>782.01</v>
+        <v>767.11</v>
       </c>
       <c r="AF3" t="n">
-        <v>702.3</v>
+        <v>767.11</v>
       </c>
       <c r="AG3" t="n">
-        <v>702.3</v>
+        <v>767.11</v>
       </c>
       <c r="AH3" t="n">
-        <v>702.3</v>
+        <v>767.11</v>
       </c>
       <c r="AI3" t="n">
-        <v>702.3</v>
+        <v>767.11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>782.01</v>
+        <v>767.11</v>
       </c>
       <c r="AK3" t="n">
-        <v>702.3</v>
+        <v>731.74</v>
       </c>
       <c r="AL3" t="n">
-        <v>782.01</v>
+        <v>685.6799999999999</v>
       </c>
       <c r="AM3" t="n">
-        <v>782.01</v>
+        <v>767.11</v>
       </c>
       <c r="AN3" t="n">
-        <v>782.01</v>
+        <v>767.11</v>
       </c>
       <c r="AO3" t="n">
-        <v>782.01</v>
+        <v>767.11</v>
       </c>
       <c r="AP3" t="n">
-        <v>782.01</v>
+        <v>767.11</v>
       </c>
       <c r="AQ3" t="n">
-        <v>702.3</v>
+        <v>767.11</v>
       </c>
       <c r="AR3" t="n">
-        <v>724.8</v>
+        <v>731.74</v>
       </c>
       <c r="AS3" t="n">
-        <v>724.8</v>
+        <v>767.11</v>
       </c>
       <c r="AT3" t="n">
-        <v>724.8</v>
+        <v>731.74</v>
       </c>
       <c r="AU3" t="n">
-        <v>724.8</v>
+        <v>767.11</v>
       </c>
       <c r="AV3" t="n">
-        <v>724.8</v>
+        <v>731.74</v>
       </c>
       <c r="AW3" t="n">
-        <v>724.8</v>
+        <v>731.74</v>
       </c>
       <c r="AX3" t="n">
-        <v>763.78</v>
+        <v>767.11</v>
       </c>
       <c r="AY3" t="n">
-        <v>763.78</v>
+        <v>731.74</v>
       </c>
       <c r="AZ3" t="n">
-        <v>763.78</v>
+        <v>767.11</v>
       </c>
       <c r="BA3" t="n">
-        <v>763.78</v>
+        <v>731.74</v>
       </c>
       <c r="BB3" t="n">
-        <v>763.78</v>
+        <v>767.11</v>
       </c>
       <c r="BC3" t="n">
-        <v>763.78</v>
+        <v>767.11</v>
       </c>
       <c r="BD3" t="n">
-        <v>763.78</v>
+        <v>731.74</v>
       </c>
       <c r="BE3" t="n">
-        <v>763.78</v>
+        <v>767.11</v>
       </c>
       <c r="BF3" t="n">
-        <v>763.78</v>
+        <v>731.74</v>
       </c>
       <c r="BG3" t="n">
-        <v>711.97</v>
+        <v>731.74</v>
       </c>
       <c r="BH3" t="n">
-        <v>711.97</v>
+        <v>731.74</v>
       </c>
       <c r="BI3" t="n">
-        <v>711.97</v>
+        <v>731.74</v>
       </c>
       <c r="BJ3" t="n">
-        <v>711.97</v>
+        <v>767.11</v>
       </c>
       <c r="BK3" t="n">
-        <v>711.97</v>
+        <v>731.74</v>
       </c>
       <c r="BL3" t="n">
-        <v>711.97</v>
+        <v>767.11</v>
       </c>
       <c r="BM3" t="n">
-        <v>711.97</v>
+        <v>767.11</v>
       </c>
       <c r="BN3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="BO3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="BP3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="BQ3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="BR3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="BS3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="BT3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="BU3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="BV3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="BW3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="BX3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="BY3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="BZ3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CA3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="CB3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CC3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="CD3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CE3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CF3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CG3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="CH3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="CI3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="CJ3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CK3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CL3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CM3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CN3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CO3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CP3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CQ3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="CR3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="CS3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CT3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="CU3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CV3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CW3" t="n">
-        <v>658.3</v>
+        <v>731.74</v>
       </c>
       <c r="CX3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="CY3" t="n">
-        <v>658.3</v>
+        <v>722.83</v>
       </c>
       <c r="CZ3" t="n">
-        <v>658.3</v>
+        <v>767.11</v>
       </c>
       <c r="DA3" t="n">
-        <v>658.3</v>
+        <v>722.83</v>
       </c>
       <c r="DB3" t="n">
-        <v>699.04</v>
+        <v>767.11</v>
       </c>
       <c r="DC3" t="n">
-        <v>699.04</v>
+        <v>767.11</v>
       </c>
       <c r="DD3" t="n">
-        <v>699.04</v>
+        <v>767.11</v>
       </c>
       <c r="DE3" t="n">
-        <v>699.04</v>
+        <v>722.83</v>
       </c>
       <c r="DF3" t="n">
-        <v>699.04</v>
+        <v>722.83</v>
       </c>
       <c r="DG3" t="n">
-        <v>699.04</v>
+        <v>767.11</v>
       </c>
       <c r="DH3" t="n">
-        <v>699.04</v>
+        <v>722.83</v>
       </c>
       <c r="DI3" t="n">
-        <v>699.04</v>
+        <v>722.83</v>
       </c>
       <c r="DJ3" t="n">
-        <v>699.04</v>
+        <v>722.83</v>
       </c>
       <c r="DK3" t="n">
-        <v>699.04</v>
+        <v>722.83</v>
       </c>
       <c r="DL3" t="n">
-        <v>699.04</v>
+        <v>742.98</v>
       </c>
       <c r="DM3" t="n">
-        <v>699.04</v>
+        <v>742.98</v>
       </c>
       <c r="DN3" t="n">
-        <v>699.04</v>
+        <v>742.98</v>
       </c>
       <c r="DO3" t="n">
-        <v>699.04</v>
+        <v>742.98</v>
       </c>
       <c r="DP3" t="n">
-        <v>699.04</v>
+        <v>742.98</v>
       </c>
       <c r="DQ3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="DR3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="DS3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="DT3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="DU3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="DV3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="DW3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="DX3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="DY3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="DZ3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="EA3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="EB3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="EC3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="ED3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="EE3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="EF3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="EG3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="EH3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="EI3" t="n">
-        <v>699.04</v>
+        <v>756.55</v>
       </c>
       <c r="EJ3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EK3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EL3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EM3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EN3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EO3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EP3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EQ3" t="n">
-        <v>699.04</v>
+        <v>673.86</v>
       </c>
       <c r="ER3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="ES3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="ET3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EU3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EV3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EW3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="EX3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="EY3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="EZ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FA3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FB3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FC3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FD3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FE3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FF3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FG3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FH3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FI3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FJ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FK3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FL3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FM3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FN3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FO3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FP3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FQ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FR3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FS3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FT3" t="n">
-        <v>699.04</v>
+        <v>766.65</v>
       </c>
       <c r="FU3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FV3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FW3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="FX3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FY3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="FZ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GA3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GB3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="GC3" t="n">
-        <v>699.04</v>
+        <v>766.65</v>
       </c>
       <c r="GD3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GE3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="GF3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="GG3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GH3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GI3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="GJ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GK3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="GL3" t="n">
-        <v>699.04</v>
+        <v>766.65</v>
       </c>
       <c r="GM3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GN3" t="n">
-        <v>699.04</v>
+        <v>766.65</v>
       </c>
       <c r="GO3" t="n">
-        <v>658.3</v>
+        <v>677.24</v>
       </c>
       <c r="GP3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GQ3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="GR3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GS3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GT3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GU3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GV3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GW3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GX3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="GY3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="GZ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HA3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HB3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HC3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HD3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HE3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HF3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HG3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HH3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HI3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HJ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HK3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HL3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HM3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HN3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HO3" t="n">
-        <v>699.04</v>
+        <v>766.65</v>
       </c>
       <c r="HP3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HQ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HR3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HS3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HT3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HU3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HV3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HW3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="HX3" t="n">
-        <v>658.3</v>
+        <v>724.98</v>
       </c>
       <c r="HY3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="HZ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IA3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IB3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IC3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="ID3" t="n">
-        <v>699.04</v>
+        <v>766.65</v>
       </c>
       <c r="IE3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IF3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IG3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IH3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="II3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="IJ3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="IK3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="IL3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="IM3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="IN3" t="n">
-        <v>699.04</v>
+        <v>766.65</v>
       </c>
       <c r="IO3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IP3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="IQ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IR3" t="n">
-        <v>699.04</v>
+        <v>766.65</v>
       </c>
       <c r="IS3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IT3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="IU3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IV3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IW3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IX3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IY3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="IZ3" t="n">
-        <v>699.04</v>
+        <v>677.24</v>
       </c>
       <c r="JA3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="JB3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="JC3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="JD3" t="n">
-        <v>699.04</v>
+        <v>724.98</v>
       </c>
       <c r="JE3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JF3" t="n">
-        <v>657.36</v>
+        <v>766.65</v>
       </c>
       <c r="JG3" t="n">
-        <v>657.36</v>
+        <v>766.65</v>
       </c>
       <c r="JH3" t="n">
-        <v>657.36</v>
+        <v>677.24</v>
       </c>
       <c r="JI3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JJ3" t="n">
-        <v>657.36</v>
+        <v>766.65</v>
       </c>
       <c r="JK3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JL3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JM3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JN3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JO3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JP3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JQ3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JR3" t="n">
-        <v>657.36</v>
+        <v>724.98</v>
       </c>
       <c r="JS3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="JT3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="JU3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="JV3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="JW3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="JX3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="JY3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="JZ3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="KA3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="KB3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="KC3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="KD3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="KE3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="KF3" t="n">
-        <v>657.36</v>
+        <v>690.96</v>
       </c>
       <c r="KG3" t="n">
-        <v>657.36</v>
+        <v>729.4299999999999</v>
       </c>
       <c r="KH3" t="n">
-        <v>657.36</v>
+        <v>729.4299999999999</v>
       </c>
       <c r="KI3" t="n">
-        <v>657.36</v>
+        <v>729.4299999999999</v>
       </c>
       <c r="KJ3" t="n">
-        <v>657.36</v>
+        <v>729.4299999999999</v>
       </c>
       <c r="KK3" t="n">
-        <v>657.36</v>
+        <v>729.4299999999999</v>
       </c>
       <c r="KL3" t="n">
-        <v>657.36</v>
+        <v>729.4299999999999</v>
       </c>
       <c r="KM3" t="n">
-        <v>657.36</v>
+        <v>729.4299999999999</v>
       </c>
       <c r="KN3" t="n">
-        <v>657.36</v>
+        <v>729.4299999999999</v>
       </c>
     </row>
   </sheetData>
